--- a/Output/May/productivity_TL/productivity_TL_2022-05-02.xlsx
+++ b/Output/May/productivity_TL/productivity_TL_2022-05-02.xlsx
@@ -1818,7 +1818,7 @@
         <v>48</v>
       </c>
       <c r="E3">
-        <v>9.166666666666668</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="F3">
         <v>6</v>
